--- a/data/trans_dic/P62-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P62-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3978462245137256</v>
+        <v>0.4015324833840243</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3758640854401283</v>
+        <v>0.3727164833123439</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3030690246440744</v>
+        <v>0.3025070825961459</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1564352387215651</v>
+        <v>0.1570299046710971</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1801194868703966</v>
+        <v>0.1852074378192346</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2958347391241948</v>
+        <v>0.2951227973376174</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2283910669654147</v>
+        <v>0.2295832359261425</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1487790411381338</v>
+        <v>0.1546468597240791</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2897042714322111</v>
+        <v>0.290266193796078</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.348432111171371</v>
+        <v>0.3568805184844518</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2856858313373936</v>
+        <v>0.2836202901526868</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1641290647685272</v>
+        <v>0.1664472638933468</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5828548635117244</v>
+        <v>0.5869101894633406</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5331652027075532</v>
+        <v>0.5391320598330528</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.461832372334564</v>
+        <v>0.4658922811628134</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2967933095848759</v>
+        <v>0.2930460415009717</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3150352165259696</v>
+        <v>0.3296973745922452</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4443160728880839</v>
+        <v>0.4452191924310516</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3744472878216933</v>
+        <v>0.3724345546015351</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2399806183399826</v>
+        <v>0.2489489566620645</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4117265995617179</v>
+        <v>0.411653712926146</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4637162388709363</v>
+        <v>0.4653306587165815</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3944473897459646</v>
+        <v>0.3933503583633719</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.244483553078783</v>
+        <v>0.2477749522717449</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.4536986793559017</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5270997103250272</v>
+        <v>0.5270997103250271</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.2171110473795609</v>
@@ -821,7 +821,7 @@
         <v>0.2269130322559167</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.3493446246569884</v>
+        <v>0.3493446246569885</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3444370985949006</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4875369732040885</v>
+        <v>0.4878906712551232</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3411309560333309</v>
+        <v>0.3464053278973603</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3932049213487095</v>
+        <v>0.3988862276070511</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4434896094376061</v>
+        <v>0.4537740177179654</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1765671659803118</v>
+        <v>0.1790280362398148</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1859303347301753</v>
+        <v>0.1841514617976091</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1871882054073878</v>
+        <v>0.185142203373388</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3027263072380253</v>
+        <v>0.3077653774568055</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3059350287996382</v>
+        <v>0.3075962274827181</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2739124123875964</v>
+        <v>0.2721865460826094</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2939987166978118</v>
+        <v>0.2950608775808886</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3830000574544982</v>
+        <v>0.3852176620772044</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6267599481181194</v>
+        <v>0.6228661559809326</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.458778444252302</v>
+        <v>0.4601366392866655</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5074526133967437</v>
+        <v>0.5070406849513234</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5996321046377326</v>
+        <v>0.6098356639422043</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2624754451480669</v>
+        <v>0.2645971807574367</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2747902077011877</v>
+        <v>0.2779413180980815</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2771159053876742</v>
+        <v>0.2740234103255631</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.394400220867717</v>
+        <v>0.3900396634174794</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3812783337593438</v>
+        <v>0.3837179691889553</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3461038215150627</v>
+        <v>0.3448382766627602</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3640925523558685</v>
+        <v>0.364144616366521</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4644765316320352</v>
+        <v>0.4662104491608491</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4461521829890877</v>
+        <v>0.4504313544552098</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3835982234794665</v>
+        <v>0.3851177893671399</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4109190963822861</v>
+        <v>0.4213222544574027</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4671291774197868</v>
+        <v>0.4677034441339384</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.21745756755433</v>
+        <v>0.2208949316803734</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2349817343347666</v>
+        <v>0.2361499894732173</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2628366065915678</v>
+        <v>0.2667684685473747</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3184633302283755</v>
+        <v>0.3247401624348041</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3218307464957745</v>
+        <v>0.3247005435487996</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3177781630177821</v>
+        <v>0.3168537695499772</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3442905819306365</v>
+        <v>0.3497865176036746</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3995422501899424</v>
+        <v>0.4022747475091461</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6054679757809021</v>
+        <v>0.6167737011718798</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5395598233343546</v>
+        <v>0.5426401733781742</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5560192502928724</v>
+        <v>0.5621961907183909</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6161000453547315</v>
+        <v>0.6248642164372987</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3302123425609093</v>
+        <v>0.3381758951416498</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3558696500818229</v>
+        <v>0.3549626232133893</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.393502933113575</v>
+        <v>0.3876252777039164</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4200185455366538</v>
+        <v>0.4245505461714648</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4212571820047651</v>
+        <v>0.4216243965554879</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4114864942937128</v>
+        <v>0.4113425714283684</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4371139665670385</v>
+        <v>0.4408542795088637</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4848996971970695</v>
+        <v>0.4852428915849835</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.383171587268903</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5609638486599304</v>
+        <v>0.5609638486599305</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2754960483445926</v>
@@ -1093,7 +1093,7 @@
         <v>0.2720082484554628</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.3602716400580877</v>
+        <v>0.3602716400580878</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.3648842819100375</v>
@@ -1105,7 +1105,7 @@
         <v>0.322817015672783</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.4403188930587663</v>
+        <v>0.4403188930587664</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4426584693501763</v>
+        <v>0.447307811508272</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3744520193419886</v>
+        <v>0.3831642591793101</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3214809218254684</v>
+        <v>0.3225018957488097</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4523072061510062</v>
+        <v>0.4526219830966068</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2235751098814805</v>
+        <v>0.2152554592773185</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3059005840499673</v>
+        <v>0.3047881872135912</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2193166079342498</v>
+        <v>0.2197209460462994</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3058568235751539</v>
+        <v>0.3122084076045172</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3180636609803746</v>
+        <v>0.3194760799847918</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3609599483505554</v>
+        <v>0.3597557547039465</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2778423741839071</v>
+        <v>0.2782371370748705</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3896495378281956</v>
+        <v>0.3927021897547627</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.601012830416772</v>
+        <v>0.6064443538077713</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5148975557122418</v>
+        <v>0.5181485783073523</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4475446957054934</v>
+        <v>0.4461295655056079</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.650191290428432</v>
+        <v>0.6498100302646483</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3384788195239654</v>
+        <v>0.3364925186195438</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.42451937733645</v>
+        <v>0.4253970343141039</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3302969135546782</v>
+        <v>0.3317414821020994</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4091822255188169</v>
+        <v>0.4204545236982329</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.410907300487105</v>
+        <v>0.4192489298446265</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.447525003256513</v>
+        <v>0.4466838807732538</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3629844998181636</v>
+        <v>0.3597701604179927</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4906343474065429</v>
+        <v>0.4910421013776273</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.5120720612806122</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4813419718253552</v>
+        <v>0.4813419718253553</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.222241333917629</v>
@@ -1241,7 +1241,7 @@
         <v>0.4236973955401803</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.4356433352813883</v>
+        <v>0.4356433352813882</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4153884708531514</v>
+        <v>0.4211923871060504</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3011349648705507</v>
+        <v>0.3054836866029774</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4337484230422178</v>
+        <v>0.4209986535935659</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3793175620679772</v>
+        <v>0.3842648863746589</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1598500378346099</v>
+        <v>0.1580710656884709</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2165317755883411</v>
+        <v>0.2246196031499531</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2855955589651711</v>
+        <v>0.2755752936871126</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3356276918184166</v>
+        <v>0.3464192660885761</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2655941949706219</v>
+        <v>0.270299081440503</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2767642538150573</v>
+        <v>0.2821544824272348</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3650156773998389</v>
+        <v>0.3685950911936917</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3771369733410921</v>
+        <v>0.3784901828587781</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6172682737473126</v>
+        <v>0.6237135136614876</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4804948202858716</v>
+        <v>0.4777585362825048</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5999600029441503</v>
+        <v>0.5942676590744868</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.586117672309621</v>
+        <v>0.5952572924649567</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.297384613225168</v>
+        <v>0.2935579414593013</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3610273402017553</v>
+        <v>0.3672223019462114</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4352583919147337</v>
+        <v>0.4322621742381929</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4659360589889924</v>
+        <v>0.4683636734645754</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3912916926583018</v>
+        <v>0.3926480124819007</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3884522223435062</v>
+        <v>0.3918003690697008</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4842833462660177</v>
+        <v>0.484823054386427</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4883059594686509</v>
+        <v>0.4940801814008457</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.475114409272799</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.5874625154918907</v>
+        <v>0.5874625154918905</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.2433187646506997</v>
@@ -1365,7 +1365,7 @@
         <v>0.2296465795680179</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.3475028111865941</v>
+        <v>0.3475028111865942</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.3583155269762011</v>
@@ -1377,7 +1377,7 @@
         <v>0.3392583578931396</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.4513682768290022</v>
+        <v>0.4513682768290023</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4645619447399111</v>
+        <v>0.4641164468177724</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3985516649476267</v>
+        <v>0.4059173871856036</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3981830793075229</v>
+        <v>0.3988074187386137</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5091824590634045</v>
+        <v>0.5141563429553904</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1858691928713318</v>
+        <v>0.1871844559531424</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2134781429772345</v>
+        <v>0.2122892953306412</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1653686184932866</v>
+        <v>0.1758191385581668</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2983843077928121</v>
+        <v>0.2995636405613608</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.3020299456367547</v>
+        <v>0.3033425898376246</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.299416369951</v>
+        <v>0.304958912318854</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2908724403217384</v>
+        <v>0.2909466953913983</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.4067337423397669</v>
+        <v>0.412093448750048</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.6342903156083638</v>
+        <v>0.641920028582639</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5618493193107833</v>
+        <v>0.56802140308889</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5505456056675322</v>
+        <v>0.5603969024093732</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6584993869154985</v>
+        <v>0.6626709428562834</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3133793159518287</v>
+        <v>0.3125730338975423</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3340094768137938</v>
+        <v>0.3259709471643937</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2991852237083951</v>
+        <v>0.3024686630837998</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3927959206349894</v>
+        <v>0.4042792856158786</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4099432365597185</v>
+        <v>0.4126817604505564</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4020620098051521</v>
+        <v>0.4072796535291869</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3924762333485498</v>
+        <v>0.3936719685241204</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4957910396293674</v>
+        <v>0.498599458265665</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.3846131701641244</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.4298715321541064</v>
+        <v>0.4298715321541066</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.3561947319392367</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4515868798434683</v>
+        <v>0.4599650986952921</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3667186286607325</v>
+        <v>0.37191996258252</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4615187849201876</v>
+        <v>0.4622999300321801</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.496203905196592</v>
+        <v>0.5110121385190446</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.220460633930817</v>
+        <v>0.2190682864916416</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.257050973118433</v>
+        <v>0.2561284293693797</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3322779113456638</v>
+        <v>0.335971301777327</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3861289463362759</v>
+        <v>0.3830968907812362</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3252594830953731</v>
+        <v>0.3217575899748638</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.3171438468741993</v>
+        <v>0.318390666877341</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4012742406865489</v>
+        <v>0.4057185670192046</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.4576580056028955</v>
+        <v>0.4529979387443235</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5701527590126467</v>
+        <v>0.5716486580015677</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4717892297315969</v>
+        <v>0.4757279257684801</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5827988129002102</v>
+        <v>0.5861132196993981</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6387417559757586</v>
+        <v>0.6471532354462652</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3041436003603707</v>
+        <v>0.3022452544066647</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3453586356230394</v>
+        <v>0.3451862875392747</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4322134842677806</v>
+        <v>0.4377444169960044</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4765847760774938</v>
+        <v>0.474236982431646</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3897212677421646</v>
+        <v>0.3915694934785121</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3835944028898787</v>
+        <v>0.3851032698997148</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.4821850572956961</v>
+        <v>0.483973360866954</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.5367661863113363</v>
+        <v>0.5335283603553312</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.4800146999586444</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.6589475560590664</v>
+        <v>0.6589475560590665</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.2369377190022799</v>
@@ -1637,7 +1637,7 @@
         <v>0.3140272437447058</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.3911491573566168</v>
+        <v>0.3911491573566167</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.3636558352744473</v>
@@ -1649,7 +1649,7 @@
         <v>0.3868118537451933</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.4976124382802287</v>
+        <v>0.4976124382802286</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.5537697666125263</v>
+        <v>0.5588021922856099</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4207755159063103</v>
+        <v>0.4215906315206708</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.4356365575094159</v>
+        <v>0.4316965929836231</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.5899505300411866</v>
+        <v>0.5994821915381331</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2041587447703938</v>
+        <v>0.1995432337137306</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2366541144248708</v>
+        <v>0.2376030880421852</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2739502193663179</v>
+        <v>0.2735719039236553</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3528277797194763</v>
+        <v>0.3552704346383939</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.3280025572005239</v>
+        <v>0.3294572477507772</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.329903512379833</v>
+        <v>0.3265091242097549</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.3562295905397332</v>
+        <v>0.3565420992275599</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.4647905622767979</v>
+        <v>0.4662064210183247</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.6721795831893939</v>
+        <v>0.6727537537447644</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5222225940041197</v>
+        <v>0.5305772714135446</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5250234455440191</v>
+        <v>0.5230401673771859</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.7098089030268162</v>
+        <v>0.7129882426935233</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.277388159074067</v>
+        <v>0.275898629099126</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3165613735173584</v>
+        <v>0.3161746154400614</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3556751225082059</v>
+        <v>0.3558467940630048</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.4302278629915202</v>
+        <v>0.4264311479600006</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.4011741050833666</v>
+        <v>0.3978123453808821</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3917513983403836</v>
+        <v>0.3922108705016671</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.4188509901898395</v>
+        <v>0.4220055495299842</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.5291227473289694</v>
+        <v>0.5310031832550312</v>
       </c>
     </row>
     <row r="28">
@@ -1773,7 +1773,7 @@
         <v>0.3018460071529139</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.3685193055784265</v>
+        <v>0.3685193055784266</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.3561388928180357</v>
@@ -1785,7 +1785,7 @@
         <v>0.3733026194381282</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.4451216008317878</v>
+        <v>0.4451216008317879</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.5214447426436543</v>
+        <v>0.5216836331317521</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.4165599947831586</v>
+        <v>0.4179888818832902</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.4434870773061729</v>
+        <v>0.4415732256726386</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.523467444680313</v>
+        <v>0.5222550828412503</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2281610089964327</v>
+        <v>0.2304362384921742</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2729106663099228</v>
+        <v>0.2732423443920264</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2830251059357509</v>
+        <v>0.2799426836237374</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.3501033437173701</v>
+        <v>0.3514033627066935</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.3401447600039961</v>
+        <v>0.3409623327728866</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.3421935555380589</v>
+        <v>0.3414595838440916</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.3584695447151721</v>
+        <v>0.3589957819901721</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.4305830870206366</v>
+        <v>0.4316951990191983</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.571433094972482</v>
+        <v>0.5729991524108591</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.4624968442727683</v>
+        <v>0.4630271117155343</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.4862822079331806</v>
+        <v>0.4872965874936976</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.5803220499493489</v>
+        <v>0.5786813653468095</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.264224326911613</v>
+        <v>0.2647806373830752</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3102045627229664</v>
+        <v>0.3085658548296076</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3212726229862083</v>
+        <v>0.3207888197976912</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.3854488634138085</v>
+        <v>0.3866470633781927</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.3713513505623651</v>
+        <v>0.3711302646027516</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.3708792537051283</v>
+        <v>0.3695926601226737</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.3889988145367836</v>
+        <v>0.3887753130960044</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.4599490526034813</v>
+        <v>0.4620550453562696</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>42813</v>
+        <v>43210</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>62750</v>
+        <v>62225</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>47522</v>
+        <v>47433</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>18044</v>
+        <v>18113</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>26812</v>
+        <v>27569</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>55626</v>
+        <v>55492</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>41839</v>
+        <v>42057</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>24296</v>
+        <v>25254</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>74299</v>
+        <v>74443</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>123686</v>
+        <v>126685</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>97130</v>
+        <v>96428</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>45735</v>
+        <v>46381</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>62722</v>
+        <v>63159</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>89011</v>
+        <v>90008</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>72416</v>
+        <v>73052</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>34234</v>
+        <v>33802</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>46894</v>
+        <v>49077</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>83544</v>
+        <v>83714</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>68595</v>
+        <v>68226</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>39190</v>
+        <v>40654</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>105594</v>
+        <v>105575</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>164609</v>
+        <v>165182</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>134108</v>
+        <v>133735</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>68126</v>
+        <v>69043</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>108523</v>
+        <v>108602</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>112326</v>
+        <v>114062</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>128761</v>
+        <v>130621</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>120368</v>
+        <v>123159</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>65209</v>
+        <v>66118</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>73179</v>
+        <v>72479</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>76404</v>
+        <v>75569</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>110043</v>
+        <v>111874</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>181086</v>
+        <v>182069</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>198000</v>
+        <v>196753</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>216274</v>
+        <v>217056</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>243173</v>
+        <v>244581</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>139513</v>
+        <v>138646</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>151064</v>
+        <v>151511</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>166173</v>
+        <v>166038</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>162746</v>
+        <v>165515</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>96936</v>
+        <v>97720</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>108153</v>
+        <v>109394</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>113109</v>
+        <v>111847</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>143366</v>
+        <v>141781</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>225682</v>
+        <v>227126</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>250185</v>
+        <v>249270</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>267837</v>
+        <v>267876</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>294904</v>
+        <v>296004</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>63864</v>
+        <v>64476</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>69009</v>
+        <v>69282</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>76423</v>
+        <v>78358</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>77290</v>
+        <v>77385</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>52374</v>
+        <v>53202</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>60297</v>
+        <v>60597</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>64593</v>
+        <v>65559</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>73926</v>
+        <v>75383</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>123579</v>
+        <v>124681</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>138710</v>
+        <v>138307</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>148642</v>
+        <v>151015</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>158855</v>
+        <v>159941</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>86669</v>
+        <v>88287</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>97066</v>
+        <v>97620</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>103408</v>
+        <v>104557</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>101939</v>
+        <v>103389</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>79530</v>
+        <v>81448</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>91317</v>
+        <v>91084</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>96705</v>
+        <v>95260</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>97501</v>
+        <v>98553</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>161758</v>
+        <v>161899</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>179614</v>
+        <v>179551</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>188717</v>
+        <v>190332</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>192792</v>
+        <v>192929</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>59380</v>
+        <v>60004</v>
       </c>
       <c r="D18" s="6" t="n">
+        <v>87521</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>81266</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>71742</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>50665</v>
+      </c>
+      <c r="H18" s="6" t="n">
         <v>85531</v>
       </c>
-      <c r="E18" s="6" t="n">
-        <v>81009</v>
-      </c>
-      <c r="F18" s="6" t="n">
-        <v>71692</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>52623</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <v>85844</v>
-      </c>
       <c r="I18" s="6" t="n">
-        <v>65648</v>
+        <v>65769</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>73066</v>
+        <v>74584</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>117529</v>
+        <v>118051</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>183744</v>
+        <v>183131</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>153178</v>
+        <v>153396</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>154844</v>
+        <v>156057</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>80623</v>
+        <v>81351</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>117611</v>
+        <v>118354</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>112775</v>
+        <v>112418</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>103057</v>
+        <v>102997</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>79668</v>
+        <v>79201</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>119131</v>
+        <v>119377</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>98867</v>
+        <v>99300</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>97750</v>
+        <v>100443</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>151836</v>
+        <v>154919</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>227809</v>
+        <v>227381</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>200118</v>
+        <v>198346</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>194975</v>
+        <v>195137</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>36010</v>
+        <v>36513</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>38925</v>
+        <v>39487</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>56514</v>
+        <v>54852</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>26365</v>
+        <v>26709</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>25135</v>
+        <v>24855</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>35269</v>
+        <v>36586</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>46315</v>
+        <v>44690</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>35784</v>
+        <v>36935</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>64787</v>
+        <v>65935</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>80854</v>
+        <v>82429</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>106753</v>
+        <v>107800</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>66424</v>
+        <v>66662</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>53511</v>
+        <v>54070</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>62110</v>
+        <v>61756</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>78169</v>
+        <v>77428</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>40739</v>
+        <v>41375</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>46761</v>
+        <v>46160</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>58804</v>
+        <v>59813</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>70586</v>
+        <v>70100</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>49678</v>
+        <v>49936</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>95449</v>
+        <v>95779</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>113483</v>
+        <v>114461</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>141634</v>
+        <v>141792</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>86003</v>
+        <v>87020</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>52836</v>
+        <v>52785</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>61647</v>
+        <v>62786</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>61966</v>
+        <v>62063</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>68548</v>
+        <v>69217</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>36305</v>
+        <v>36562</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>47977</v>
+        <v>47710</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>31896</v>
+        <v>33912</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>52634</v>
+        <v>52842</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>93345</v>
+        <v>93751</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>113604</v>
+        <v>115707</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>101369</v>
+        <v>101395</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>126502</v>
+        <v>128169</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>72140</v>
+        <v>73007</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>86906</v>
+        <v>87860</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>85676</v>
+        <v>87210</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>88649</v>
+        <v>89211</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>61211</v>
+        <v>61054</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>75065</v>
+        <v>73258</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>57707</v>
+        <v>58340</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>69288</v>
+        <v>71313</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>126697</v>
+        <v>127543</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>152549</v>
+        <v>154529</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>136778</v>
+        <v>137195</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>154200</v>
+        <v>155074</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>125661</v>
+        <v>127993</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>140154</v>
+        <v>142142</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>135328</v>
+        <v>135557</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>164224</v>
+        <v>169125</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>100662</v>
+        <v>100026</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>130282</v>
+        <v>129815</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>131921</v>
+        <v>133387</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>155930</v>
+        <v>154705</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>239021</v>
+        <v>236448</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>281947</v>
+        <v>283055</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>276977</v>
+        <v>280044</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>336282</v>
+        <v>332858</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>158654</v>
+        <v>159070</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>180310</v>
+        <v>181816</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>170891</v>
+        <v>171862</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>211399</v>
+        <v>214182</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>138871</v>
+        <v>138005</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>175040</v>
+        <v>174952</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>171597</v>
+        <v>173793</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>192458</v>
+        <v>191510</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>286392</v>
+        <v>287750</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>341023</v>
+        <v>342364</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>332825</v>
+        <v>334059</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>394410</v>
+        <v>392031</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>151268</v>
+        <v>152643</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>172834</v>
+        <v>173168</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>193836</v>
+        <v>192083</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>200639</v>
+        <v>203880</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>110856</v>
+        <v>108350</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>132584</v>
+        <v>133115</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>156089</v>
+        <v>155873</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>181840</v>
+        <v>183099</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>267699</v>
+        <v>268886</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>320334</v>
+        <v>317038</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>361473</v>
+        <v>361790</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>397616</v>
+        <v>398827</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>183613</v>
+        <v>183770</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>214503</v>
+        <v>217935</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>233609</v>
+        <v>232726</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>241402</v>
+        <v>242483</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>150618</v>
+        <v>149810</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>177351</v>
+        <v>177134</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>202653</v>
+        <v>202751</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>221731</v>
+        <v>219774</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>327418</v>
+        <v>324674</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>380387</v>
+        <v>380834</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>425016</v>
+        <v>428217</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>452651</v>
+        <v>454259</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>708822</v>
+        <v>709147</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>825377</v>
+        <v>828209</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>863166</v>
+        <v>859441</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>830169</v>
+        <v>828246</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>535389</v>
+        <v>540728</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>702346</v>
+        <v>703200</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>695754</v>
+        <v>688176</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>770248</v>
+        <v>773108</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1260537</v>
+        <v>1263567</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1558675</v>
+        <v>1555332</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>1578912</v>
+        <v>1581230</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1630171</v>
+        <v>1634382</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>776774</v>
+        <v>778902</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>916397</v>
+        <v>917448</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>946459</v>
+        <v>948433</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>920335</v>
+        <v>917733</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>620013</v>
+        <v>621319</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>798323</v>
+        <v>794106</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>789777</v>
+        <v>788587</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>848010</v>
+        <v>850646</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1376185</v>
+        <v>1375365</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1689337</v>
+        <v>1683477</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>1713381</v>
+        <v>1712397</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1741350</v>
+        <v>1749323</v>
       </c>
     </row>
     <row r="40">
